--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07254696640022246</v>
+        <v>3.523383848706056</v>
       </c>
       <c r="C2" t="n">
         <v>0.2451400997432315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3185295115755241</v>
+        <v>0.08920774794672452</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09319702400376338</v>
+        <v>4.584654885061195</v>
       </c>
       <c r="C3" t="n">
         <v>0.3189244793803044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4231583885873677</v>
+        <v>0.1185102337423251</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0798632717787852</v>
+        <v>3.859097526800068</v>
       </c>
       <c r="C4" t="n">
         <v>0.2693564062398919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3531801758787494</v>
+        <v>0.09891205356054136</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08091363966118405</v>
+        <v>3.938005592514513</v>
       </c>
       <c r="C5" t="n">
         <v>0.2741028538172177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3468052224187391</v>
+        <v>0.09712667663072473</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08694491904232729</v>
+        <v>4.169407989889005</v>
       </c>
       <c r="C6" t="n">
         <v>0.291940754492279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3838466056966265</v>
+        <v>0.1075005297996432</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09512239177780081</v>
+        <v>4.583685832747467</v>
       </c>
       <c r="C7" t="n">
         <v>0.3239416092977609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4381618801937951</v>
+        <v>0.1227121291677342</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09297779164647407</v>
+        <v>4.5737049413282</v>
       </c>
       <c r="C8" t="n">
         <v>0.3181808545414095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4221583667955992</v>
+        <v>0.1182301664684953</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0935429780790704</v>
+        <v>4.605442569418791</v>
       </c>
       <c r="C9" t="n">
         <v>0.3200934686197941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4241094036288985</v>
+        <v>0.1187765761283062</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.173725672402991</v>
+        <v>36.86868700468686</v>
       </c>
       <c r="C10" t="n">
         <v>5.223802493794244</v>
       </c>
       <c r="D10" t="n">
-        <v>5.223967625706186</v>
+        <v>1.169862682051661</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1879403278672176</v>
+        <v>8.274488659602232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6301673307852504</v>
+        <v>0.6266817176822452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7122294142129872</v>
+        <v>0.1984453052675678</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2234645391621286</v>
+        <v>9.76858076809229</v>
       </c>
       <c r="C12" t="n">
         <v>0.755533785471989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8275996611000611</v>
+        <v>0.2317785300427462</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.178812784987612</v>
+        <v>7.51736349156496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.597876212736879</v>
+        <v>0.5639885403293258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.683880772973017</v>
+        <v>0.1724421891254076</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.523383848706056</v>
+        <v>3.523383848692135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2451400997432315</v>
+        <v>0.245140099742244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08920774794672452</v>
+        <v>0.08920774794637443</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.584654885061195</v>
+        <v>4.584654885061045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3189244793803044</v>
+        <v>0.3189244793802716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1185102337423251</v>
+        <v>0.118510233742331</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.859097526800068</v>
+        <v>3.859097526785147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2693564062398919</v>
+        <v>0.2693564062388439</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09891205356054136</v>
+        <v>0.09891205356010804</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.938005592514513</v>
+        <v>3.940796165802958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2741028538172177</v>
+        <v>0.2742876421333753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09712667663072473</v>
+        <v>0.09716354577194732</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.169407989889005</v>
+        <v>4.186414752510643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291940754492279</v>
+        <v>0.2931235527771019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1075005297996432</v>
+        <v>0.1079600696974483</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.583685832747467</v>
+        <v>4.536173119805767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3239416092977609</v>
+        <v>0.3203539449589251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1227121291677342</v>
+        <v>0.122079026791333</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.5737049413282</v>
+        <v>4.573704941326089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3181808545414095</v>
+        <v>0.3181808545412423</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1182301664684953</v>
+        <v>0.1182301664684505</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.605442569418791</v>
+        <v>4.605530806929554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3200934686197941</v>
+        <v>0.3200989967796836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1187765761283062</v>
+        <v>0.1187796765109132</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86868700468686</v>
+        <v>4.328890552922555</v>
       </c>
       <c r="C10" t="n">
-        <v>5.223802493794244</v>
+        <v>0.3799322129172439</v>
       </c>
       <c r="D10" t="n">
-        <v>1.169862682051661</v>
+        <v>0.09716680042837743</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.274488659602232</v>
+        <v>8.336981185372739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6266817176822452</v>
+        <v>0.6319789425467534</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1984453052675678</v>
+        <v>0.1997151519002555</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.76858076809229</v>
+        <v>8.532485777311894</v>
       </c>
       <c r="C12" t="n">
-        <v>0.755533785471989</v>
+        <v>0.6486243982200789</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2317785300427462</v>
+        <v>0.2040750220033539</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.51736349156496</v>
+        <v>8.569698593003306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5639885403293258</v>
+        <v>0.6535883208863547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1724421891254076</v>
+        <v>0.1928678058139135</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.336981185372739</v>
+        <v>8.354559987145667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6319789425467534</v>
+        <v>0.6334732431707721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1997151519002555</v>
+        <v>0.2001493008941517</v>
       </c>
     </row>
     <row r="12">
